--- a/data/georgia_census/racha/cageri/healthcare_staff.xlsx
+++ b/data/georgia_census/racha/cageri/healthcare_staff.xlsx
@@ -1362,13 +1362,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B541C59F-8E4F-464B-A326-8A264E75D00B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E477285-D28D-4B11-9F94-C15803A5BC22}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9471180-5C4A-43F0-A1B1-A10E22A3A1A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD559C1A-3ACA-4A3F-B6D4-882387B40772}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DA09-EAD5-456C-8FAA-7C896103BCEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EDB512-FACC-4EA8-B649-ACE7934D028D}"/>
 </file>